--- a/biology/Botanique/Cymbalaire/Cymbalaire.xlsx
+++ b/biology/Botanique/Cymbalaire/Cymbalaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbalaria
 Le genre Cymbalaria, les cymbalaires, regroupe une dizaine d'espèces de plantes herbacées vivaces de la famille des Scrophulariaceae, selon la classification classique, ou des Plantaginaceae, selon la classification phylogénétique. On les retrouve de l'Europe de l'Ouest jusqu'en Iran, surtout le long du bassin méditerranéen.
@@ -514,7 +526,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cymbalaria aequitriloba (Viv.) A. Chev. - Cymbalaire trilobée
 Cymbalaria ebelii (Cufod.) Speta
